--- a/partofspeechtagger.xlsx
+++ b/partofspeechtagger.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy Yosef\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AITextAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B14F952-622F-43CA-88A8-919CD12E742D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3620AB5-22EF-447F-A796-DB169E12512E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A19E0046-20D5-44D7-9E26-8B582ED6EB33}"/>
   </bookViews>
@@ -645,7 +645,7 @@
     <t>Verb</t>
   </si>
   <si>
-    <t>Alien</t>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -872,6 +872,14 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -884,14 +892,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1532,7 +1532,7 @@
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1545,7 +1545,7 @@
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1678,7 +1678,7 @@
       <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1691,7 +1691,7 @@
       <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1719,7 +1719,7 @@
       <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1732,7 +1732,7 @@
       <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1900,7 +1900,7 @@
       <c r="D34" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="27" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       <c r="D35" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="19"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
@@ -1932,7 +1932,7 @@
       <c r="D36" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="28" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       <c r="D37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="20"/>
+      <c r="E37" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1975,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345607A1-FB21-4158-8A93-DF03430FEE98}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1988,422 +1988,422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="21">
+      <c r="A1" s="17">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
+      <c r="A2" s="22">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="22" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
+      <c r="A3" s="23">
         <v>3</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
+      <c r="A4" s="22">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="22">
         <v>5</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="18" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="17">
         <v>6</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="A7" s="24">
         <v>7</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="24">
         <v>8</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="21" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="24">
         <v>9</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+      <c r="A10" s="22">
         <v>10</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="A11" s="22">
         <v>11</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="18">
         <v>12</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="18">
         <v>13</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="18">
         <v>14</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="18">
         <v>15</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+      <c r="A16" s="22">
         <v>16</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+      <c r="A17" s="22">
         <v>17</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+      <c r="A18" s="19">
         <v>18</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="19">
         <v>19</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
+      <c r="A20" s="20">
         <v>20</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
+      <c r="A21" s="20">
         <v>21</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
+      <c r="A22" s="20">
         <v>22</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+      <c r="A23" s="22">
         <v>23</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
+      <c r="A24" s="22">
         <v>24</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
+      <c r="A25" s="22">
         <v>25</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
+      <c r="A26" s="22">
         <v>26</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="A27" s="21">
         <v>27</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="25">
+      <c r="A28" s="21">
         <v>28</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="21">
         <v>29</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
+      <c r="A30" s="21">
         <v>30</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
+      <c r="A31" s="21">
         <v>31</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
+      <c r="A32" s="21">
         <v>32</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="27">
+      <c r="A33" s="23">
         <v>33</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
+      <c r="A34" s="19">
         <v>34</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
+      <c r="A35" s="19">
         <v>35</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="24">
+      <c r="A36" s="20">
         <v>36</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="20" t="s">
         <v>73</v>
       </c>
     </row>
